--- a/financeiro/resumo_campanha_63.xlsx
+++ b/financeiro/resumo_campanha_63.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>CAMPANHA 63</t>
   </si>
@@ -59,6 +59,9 @@
     <t>COMISSÃO (2%)-PÓS-FECH</t>
   </si>
   <si>
+    <t>Josefina</t>
+  </si>
+  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -96,6 +99,12 @@
   </si>
   <si>
     <t>NÃO CONVERTIDAS</t>
+  </si>
+  <si>
+    <t>CONVERTIDO:</t>
+  </si>
+  <si>
+    <t>NÃO CONVERTIDO:</t>
   </si>
 </sst>
 </file>
@@ -199,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -210,23 +219,28 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="9" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="9" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="9" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="9" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="4" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="9" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,10 +540,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B26" sqref="B26:F28"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -601,374 +615,433 @@
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="F10" s="1" t="s">
+      <c r="C8" s="6">
+        <v>499.99</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>499.99</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>4.9999</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="C9" s="9">
+        <v>499.99</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>499.99</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>4.9999</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="B11" s="3" t="s">
+      <c r="F11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="B12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="8">
-        <v>1129.7</v>
-      </c>
-      <c r="D12" s="8">
-        <v>629.7</v>
-      </c>
-      <c r="E12" s="8">
-        <v>500.0</v>
-      </c>
-      <c r="F12" s="9">
-        <v>0.44259537930424</v>
-      </c>
-      <c r="G12" s="8">
-        <v>5.0</v>
-      </c>
-      <c r="H12" s="10">
-        <v>500.0</v>
-      </c>
-      <c r="I12" s="10">
-        <v>10.0</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="B13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="5">
+        <v>17</v>
+      </c>
+      <c r="C13" s="6">
         <v>1129.7</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="6">
         <v>629.7</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="6">
         <v>500.0</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="7">
         <v>0.44259537930424</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="6">
         <v>5.0</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="8">
         <v>500.0</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="8">
         <v>10.0</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="F14" s="1" t="s">
-        <v>17</v>
+      <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1129.7</v>
+      </c>
+      <c r="D14" s="9">
+        <v>629.7</v>
+      </c>
+      <c r="E14" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0.44259537930424</v>
+      </c>
+      <c r="G14" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="I14" s="9">
+        <v>10.0</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="B15" s="3" t="s">
+      <c r="F15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="B16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5">
-        <v>0</v>
-      </c>
-      <c r="H16" s="5">
-        <v>0</v>
-      </c>
-      <c r="I16" s="5">
-        <v>0</v>
-      </c>
-    </row>
     <row r="17" spans="1:9">
-      <c r="F17" s="1" t="s">
-        <v>18</v>
+      <c r="B17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="B18" s="3" t="s">
+      <c r="F18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="3" t="s">
+    </row>
+    <row r="19" spans="1:9">
+      <c r="B19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="B19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="8">
-        <v>0</v>
-      </c>
-      <c r="D19" s="8">
-        <v>0</v>
-      </c>
-      <c r="E19" s="8">
-        <v>0</v>
-      </c>
-      <c r="F19" s="11">
-        <v>0</v>
-      </c>
-      <c r="G19" s="8">
-        <v>0</v>
-      </c>
-      <c r="H19" s="10">
-        <v>0</v>
-      </c>
-      <c r="I19" s="10">
-        <v>0</v>
-      </c>
-    </row>
     <row r="20" spans="1:9">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="6">
+        <v>499.99</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <v>499.99</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G20" s="6">
+        <v>4.9999</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0</v>
+      </c>
+      <c r="I20" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="B21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="6">
         <v>1129.7</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D21" s="6">
         <v>629.7</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E21" s="6">
         <v>500.0</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F21" s="7">
         <v>0.44259537930424</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G21" s="6">
         <v>5.0</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H21" s="8">
         <v>500.0</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I21" s="8">
         <v>10.0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="B21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="8">
-        <v>0</v>
-      </c>
-      <c r="D21" s="8">
-        <v>0</v>
-      </c>
-      <c r="E21" s="8">
-        <v>0</v>
-      </c>
-      <c r="F21" s="11">
-        <v>0</v>
-      </c>
-      <c r="G21" s="8">
-        <v>0</v>
-      </c>
-      <c r="H21" s="10">
-        <v>0</v>
-      </c>
-      <c r="I21" s="10">
-        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0</v>
+      </c>
+      <c r="H22" s="8">
+        <v>0</v>
+      </c>
+      <c r="I22" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="B23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="9">
+        <v>1629.69</v>
+      </c>
+      <c r="D23" s="9">
+        <v>629.7</v>
+      </c>
+      <c r="E23" s="9">
+        <v>999.99</v>
+      </c>
+      <c r="F23" s="10">
+        <v>1.4425953793042</v>
+      </c>
+      <c r="G23" s="9">
+        <v>9.9999</v>
+      </c>
+      <c r="H23" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="I23" s="9">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="B26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="B27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="5">
+      <c r="D27" s="12">
+        <v>499.99</v>
+      </c>
+      <c r="E27" s="13">
+        <v>0</v>
+      </c>
+      <c r="F27" s="12">
+        <v>499.99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="B28" s="4"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="B29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="12">
         <v>1129.7</v>
       </c>
-      <c r="D22" s="5">
+      <c r="E29" s="13">
         <v>629.7</v>
       </c>
-      <c r="E22" s="5">
+      <c r="F29" s="12">
         <v>500.0</v>
       </c>
-      <c r="F22" s="6">
-        <v>0.44259537930424</v>
-      </c>
-      <c r="G22" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="H22" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="I22" s="5">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="B24" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="B25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="B26" s="7"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="13"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="B27" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="13">
-        <v>1129.7</v>
-      </c>
-      <c r="E27" s="14">
+    </row>
+    <row r="30" spans="1:9">
+      <c r="B30" s="4"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="12"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="B31" s="5"/>
+      <c r="C31" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="9">
+        <v>1629.69</v>
+      </c>
+      <c r="E31" s="9">
         <v>629.7</v>
       </c>
-      <c r="F27" s="13">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="B28" s="7"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="13"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="B29" s="4"/>
-      <c r="C29" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="5">
-        <v>1129.7</v>
-      </c>
-      <c r="E29" s="5">
-        <v>629.7</v>
-      </c>
-      <c r="F29" s="5">
-        <v>500.0</v>
+      <c r="F31" s="9">
+        <v>999.99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="D32" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="15">
+        <v>0.38639250409587</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="D33" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="15">
+        <v>0.61360749590413</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>

--- a/financeiro/resumo_campanha_63.xlsx
+++ b/financeiro/resumo_campanha_63.xlsx
@@ -208,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -221,15 +221,19 @@
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="9" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="9" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="9" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -630,10 +634,10 @@
       <c r="G8" s="6">
         <v>4.9999</v>
       </c>
-      <c r="H8" s="8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="8">
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -641,25 +645,25 @@
       <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>499.99</v>
       </c>
-      <c r="D9" s="9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
         <v>499.99</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>1.0</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>4.9999</v>
       </c>
-      <c r="H9" s="9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9">
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
         <v>0.0</v>
       </c>
     </row>
@@ -698,25 +702,25 @@
       <c r="B13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="10">
         <v>1129.7</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="10">
         <v>629.7</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="10">
         <v>500.0</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="11">
         <v>0.44259537930424</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="10">
         <v>5.0</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="12">
         <v>500.0</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="12">
         <v>10.0</v>
       </c>
     </row>
@@ -724,25 +728,25 @@
       <c r="B14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>1129.7</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>629.7</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>500.0</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>0.44259537930424</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <v>5.0</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <v>500.0</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="8">
         <v>10.0</v>
       </c>
     </row>
@@ -781,25 +785,25 @@
       <c r="B17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="9">
-        <v>0</v>
-      </c>
-      <c r="D17" s="9">
-        <v>0</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0</v>
-      </c>
-      <c r="F17" s="10">
-        <v>0</v>
-      </c>
-      <c r="G17" s="9">
-        <v>0</v>
-      </c>
-      <c r="H17" s="9">
-        <v>0</v>
-      </c>
-      <c r="I17" s="9">
+      <c r="C17" s="8">
+        <v>0</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0</v>
+      </c>
+      <c r="I17" s="8">
         <v>0</v>
       </c>
     </row>
@@ -838,25 +842,25 @@
       <c r="B20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="10">
         <v>499.99</v>
       </c>
-      <c r="D20" s="6">
-        <v>0</v>
-      </c>
-      <c r="E20" s="6">
+      <c r="D20" s="10">
+        <v>0</v>
+      </c>
+      <c r="E20" s="10">
         <v>499.99</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="11">
         <v>1.0</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="10">
         <v>4.9999</v>
       </c>
-      <c r="H20" s="8">
-        <v>0</v>
-      </c>
-      <c r="I20" s="8">
+      <c r="H20" s="12">
+        <v>0</v>
+      </c>
+      <c r="I20" s="12">
         <v>0.0</v>
       </c>
     </row>
@@ -864,25 +868,25 @@
       <c r="B21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="10">
         <v>1129.7</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="10">
         <v>629.7</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="10">
         <v>500.0</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="11">
         <v>0.44259537930424</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="10">
         <v>5.0</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="12">
         <v>500.0</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="12">
         <v>10.0</v>
       </c>
     </row>
@@ -890,25 +894,25 @@
       <c r="B22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="6">
-        <v>0</v>
-      </c>
-      <c r="D22" s="6">
-        <v>0</v>
-      </c>
-      <c r="E22" s="6">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7">
-        <v>0</v>
-      </c>
-      <c r="G22" s="6">
-        <v>0</v>
-      </c>
-      <c r="H22" s="8">
-        <v>0</v>
-      </c>
-      <c r="I22" s="8">
+      <c r="C22" s="10">
+        <v>0</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0</v>
+      </c>
+      <c r="E22" s="10">
+        <v>0</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0</v>
+      </c>
+      <c r="H22" s="12">
+        <v>0</v>
+      </c>
+      <c r="I22" s="12">
         <v>0</v>
       </c>
     </row>
@@ -916,25 +920,25 @@
       <c r="B23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <v>1629.69</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <v>629.7</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="8">
         <v>999.99</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="9">
         <v>1.4425953793042</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="8">
         <v>9.9999</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="8">
         <v>500.0</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="8">
         <v>10.0</v>
       </c>
     </row>
@@ -947,16 +951,16 @@
       <c r="B26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="13" t="s">
         <v>27</v>
       </c>
     </row>
@@ -964,78 +968,78 @@
       <c r="B27" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="14">
         <v>499.99</v>
       </c>
-      <c r="E27" s="13">
-        <v>0</v>
-      </c>
-      <c r="F27" s="12">
+      <c r="E27" s="15">
+        <v>0</v>
+      </c>
+      <c r="F27" s="14">
         <v>499.99</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="4"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="12"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="14"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="14">
         <v>1129.7</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="15">
         <v>629.7</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="14">
         <v>500.0</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="4"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="12"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="14"/>
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="5"/>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="8">
         <v>1629.69</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="8">
         <v>629.7</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="8">
         <v>999.99</v>
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="17">
         <v>0.38639250409587</v>
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="17">
         <v>0.61360749590413</v>
       </c>
     </row>

--- a/financeiro/resumo_campanha_63.xlsx
+++ b/financeiro/resumo_campanha_63.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>CAMPANHA 63</t>
   </si>
@@ -29,7 +29,7 @@
     <t>PAGAMENTO:</t>
   </si>
   <si>
-    <t>05/11/2024</t>
+    <t>20/10/2024</t>
   </si>
   <si>
     <t>VENDA EM BOLETOS - MATRIZ</t>
@@ -59,16 +59,25 @@
     <t>COMISSÃO (2%)-PÓS-FECH</t>
   </si>
   <si>
-    <t>Josefina</t>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
+    <t>Suzana</t>
+  </si>
+  <si>
+    <t>Sttefani</t>
+  </si>
+  <si>
+    <t>Sibely</t>
   </si>
   <si>
     <t>TOTAL</t>
   </si>
   <si>
     <t>VENDA EM BOLETOS - PRESTIGIO</t>
-  </si>
-  <si>
-    <t>João</t>
   </si>
   <si>
     <t>VENDA EM BOLETOS - DAILY</t>
@@ -208,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -221,19 +230,15 @@
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="9" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="9" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="9" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -544,10 +549,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -620,45 +625,45 @@
         <v>14</v>
       </c>
       <c r="C8" s="6">
-        <v>499.99</v>
+        <v>3100.0</v>
       </c>
       <c r="D8" s="6">
         <v>0</v>
       </c>
       <c r="E8" s="6">
-        <v>499.99</v>
+        <v>3100.0</v>
       </c>
       <c r="F8" s="7">
         <v>1.0</v>
       </c>
       <c r="G8" s="6">
-        <v>4.9999</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
+        <v>31.0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="8">
-        <v>499.99</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="8">
-        <v>499.99</v>
-      </c>
-      <c r="F9" s="9">
+      <c r="C9" s="6">
+        <v>280.0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>280.0</v>
+      </c>
+      <c r="F9" s="7">
         <v>1.0</v>
       </c>
-      <c r="G9" s="8">
-        <v>4.9999</v>
+      <c r="G9" s="6">
+        <v>2.8</v>
       </c>
       <c r="H9" s="8">
         <v>0</v>
@@ -667,92 +672,113 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="10" spans="1:9">
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6">
+        <v>4150.0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1400.0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>2750.0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.66265060240964</v>
+      </c>
+      <c r="G10" s="6">
+        <v>27.5</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
     <row r="11" spans="1:9">
-      <c r="F11" s="1" t="s">
-        <v>16</v>
+      <c r="B11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="6">
+        <v>4614.0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>4614.0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>46.14</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0.0</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="B12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>13</v>
+      <c r="B12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1500.0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1500.0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>15.0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0.0</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="B13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="10">
-        <v>1129.7</v>
-      </c>
-      <c r="D13" s="10">
-        <v>629.7</v>
-      </c>
-      <c r="E13" s="10">
-        <v>500.0</v>
-      </c>
-      <c r="F13" s="11">
-        <v>0.44259537930424</v>
-      </c>
-      <c r="G13" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="H13" s="12">
-        <v>500.0</v>
-      </c>
-      <c r="I13" s="12">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="B14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="8">
-        <v>1129.7</v>
-      </c>
-      <c r="D14" s="8">
-        <v>629.7</v>
-      </c>
-      <c r="E14" s="8">
-        <v>500.0</v>
-      </c>
-      <c r="F14" s="9">
-        <v>0.44259537930424</v>
-      </c>
-      <c r="G14" s="8">
-        <v>5.0</v>
-      </c>
-      <c r="H14" s="8">
-        <v>500.0</v>
-      </c>
-      <c r="I14" s="8">
-        <v>10.0</v>
+      <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="9">
+        <v>13644.0</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1400.0</v>
+      </c>
+      <c r="E13" s="9">
+        <v>12244.0</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.89739079448842</v>
+      </c>
+      <c r="G13" s="9">
+        <v>122.44</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0.0</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="F15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -783,38 +809,38 @@
     </row>
     <row r="17" spans="1:9">
       <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="8">
-        <v>0</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0</v>
-      </c>
-      <c r="E17" s="8">
-        <v>0</v>
-      </c>
-      <c r="F17" s="9">
-        <v>0</v>
-      </c>
-      <c r="G17" s="8">
-        <v>0</v>
-      </c>
-      <c r="H17" s="8">
-        <v>0</v>
-      </c>
-      <c r="I17" s="8">
+        <v>19</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="F18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="B19" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>7</v>
@@ -839,213 +865,321 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="B20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="10">
-        <v>499.99</v>
-      </c>
-      <c r="D20" s="10">
-        <v>0</v>
-      </c>
-      <c r="E20" s="10">
-        <v>499.99</v>
-      </c>
-      <c r="F20" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="G20" s="10">
-        <v>4.9999</v>
-      </c>
-      <c r="H20" s="12">
-        <v>0</v>
-      </c>
-      <c r="I20" s="12">
+      <c r="B20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="F21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="B22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="B23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="6">
+        <v>13644.0</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1400.0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>12244.0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.89739079448842</v>
+      </c>
+      <c r="G23" s="6">
+        <v>122.44</v>
+      </c>
+      <c r="H23" s="8">
+        <v>0</v>
+      </c>
+      <c r="I23" s="8">
         <v>0.0</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="B21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="10">
-        <v>1129.7</v>
-      </c>
-      <c r="D21" s="10">
-        <v>629.7</v>
-      </c>
-      <c r="E21" s="10">
-        <v>500.0</v>
-      </c>
-      <c r="F21" s="11">
-        <v>0.44259537930424</v>
-      </c>
-      <c r="G21" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="H21" s="12">
-        <v>500.0</v>
-      </c>
-      <c r="I21" s="12">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="B22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="10">
-        <v>0</v>
-      </c>
-      <c r="D22" s="10">
-        <v>0</v>
-      </c>
-      <c r="E22" s="10">
-        <v>0</v>
-      </c>
-      <c r="F22" s="11">
-        <v>0</v>
-      </c>
-      <c r="G22" s="10">
-        <v>0</v>
-      </c>
-      <c r="H22" s="12">
-        <v>0</v>
-      </c>
-      <c r="I22" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="B23" s="5" t="s">
+    <row r="24" spans="1:9">
+      <c r="B24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0</v>
+      </c>
+      <c r="H24" s="8">
+        <v>0</v>
+      </c>
+      <c r="I24" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="B25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0</v>
+      </c>
+      <c r="H25" s="8">
+        <v>0</v>
+      </c>
+      <c r="I25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="9">
+        <v>13644.0</v>
+      </c>
+      <c r="D26" s="9">
+        <v>1400.0</v>
+      </c>
+      <c r="E26" s="9">
+        <v>12244.0</v>
+      </c>
+      <c r="F26" s="10">
+        <v>0.89739079448842</v>
+      </c>
+      <c r="G26" s="9">
+        <v>122.44</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="B28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="B29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="B30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="12">
+        <v>3100.0</v>
+      </c>
+      <c r="E30" s="13">
+        <v>0</v>
+      </c>
+      <c r="F30" s="12">
+        <v>3100.0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="B31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="8">
-        <v>1629.69</v>
-      </c>
-      <c r="D23" s="8">
-        <v>629.7</v>
-      </c>
-      <c r="E23" s="8">
-        <v>999.99</v>
-      </c>
-      <c r="F23" s="9">
-        <v>1.4425953793042</v>
-      </c>
-      <c r="G23" s="8">
-        <v>9.9999</v>
-      </c>
-      <c r="H23" s="8">
-        <v>500.0</v>
-      </c>
-      <c r="I23" s="8">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="B25" s="1" t="s">
+      <c r="D31" s="12">
+        <v>280.0</v>
+      </c>
+      <c r="E31" s="13">
+        <v>0</v>
+      </c>
+      <c r="F31" s="12">
+        <v>280.0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="B32" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="B26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="B27" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="14">
-        <v>499.99</v>
-      </c>
-      <c r="E27" s="15">
-        <v>0</v>
-      </c>
-      <c r="F27" s="14">
-        <v>499.99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="B28" s="4"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="14"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="B29" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="14" t="s">
+      <c r="C32" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="12">
+        <v>4150.0</v>
+      </c>
+      <c r="E32" s="13">
+        <v>1400.0</v>
+      </c>
+      <c r="F32" s="12">
+        <v>2750.0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="B33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="14">
-        <v>1129.7</v>
-      </c>
-      <c r="E29" s="15">
-        <v>629.7</v>
-      </c>
-      <c r="F29" s="14">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="B30" s="4"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="14"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="B31" s="5"/>
-      <c r="C31" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="8">
-        <v>1629.69</v>
-      </c>
-      <c r="E31" s="8">
-        <v>629.7</v>
-      </c>
-      <c r="F31" s="8">
-        <v>999.99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="D32" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="17">
-        <v>0.38639250409587</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="D33" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="17">
-        <v>0.61360749590413</v>
+      <c r="D33" s="12">
+        <v>4614.0</v>
+      </c>
+      <c r="E33" s="13">
+        <v>0</v>
+      </c>
+      <c r="F33" s="12">
+        <v>4614.0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="B34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="12">
+        <v>1500.0</v>
+      </c>
+      <c r="E34" s="13">
+        <v>0</v>
+      </c>
+      <c r="F34" s="12">
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="B35" s="4"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="12"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="B36" s="4"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="12"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="B37" s="5"/>
+      <c r="C37" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="9">
+        <v>13644.0</v>
+      </c>
+      <c r="E37" s="9">
+        <v>1400.0</v>
+      </c>
+      <c r="F37" s="9">
+        <v>12244.0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="D38" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="15">
+        <v>0.10260920551158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="D39" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="15">
+        <v>0.89739079448842</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B28:F28"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>

--- a/financeiro/resumo_campanha_63.xlsx
+++ b/financeiro/resumo_campanha_63.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>CAMPANHA 63</t>
   </si>
@@ -29,7 +29,7 @@
     <t>PAGAMENTO:</t>
   </si>
   <si>
-    <t>20/10/2024</t>
+    <t>06/10/2024</t>
   </si>
   <si>
     <t>VENDA EM BOLETOS - MATRIZ</t>
@@ -80,7 +80,13 @@
     <t>VENDA EM BOLETOS - PRESTIGIO</t>
   </si>
   <si>
+    <t>Stephanie</t>
+  </si>
+  <si>
     <t>VENDA EM BOLETOS - DAILY</t>
+  </si>
+  <si>
+    <t>Terezinha</t>
   </si>
   <si>
     <t>RESUMO GERAL VENDAS EM BOLETOS</t>
@@ -549,10 +555,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -625,19 +631,19 @@
         <v>14</v>
       </c>
       <c r="C8" s="6">
+        <v>4979.0</v>
+      </c>
+      <c r="D8" s="6">
         <v>3100.0</v>
       </c>
-      <c r="D8" s="6">
-        <v>0</v>
-      </c>
       <c r="E8" s="6">
-        <v>3100.0</v>
+        <v>1879.0</v>
       </c>
       <c r="F8" s="7">
-        <v>1.0</v>
+        <v>0.3773850170717</v>
       </c>
       <c r="G8" s="6">
-        <v>31.0</v>
+        <v>18.79</v>
       </c>
       <c r="H8" s="8">
         <v>0</v>
@@ -654,16 +660,16 @@
         <v>280.0</v>
       </c>
       <c r="D9" s="6">
-        <v>0</v>
+        <v>280.0</v>
       </c>
       <c r="E9" s="6">
-        <v>280.0</v>
+        <v>0.0</v>
       </c>
       <c r="F9" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G9" s="6">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="H9" s="8">
         <v>0</v>
@@ -677,19 +683,19 @@
         <v>16</v>
       </c>
       <c r="C10" s="6">
-        <v>4150.0</v>
+        <v>7700.0</v>
       </c>
       <c r="D10" s="6">
-        <v>1400.0</v>
+        <v>6950.0</v>
       </c>
       <c r="E10" s="6">
-        <v>2750.0</v>
+        <v>750.0</v>
       </c>
       <c r="F10" s="7">
-        <v>0.66265060240964</v>
+        <v>0.097402597402597</v>
       </c>
       <c r="G10" s="6">
-        <v>27.5</v>
+        <v>7.5</v>
       </c>
       <c r="H10" s="8">
         <v>0</v>
@@ -703,19 +709,19 @@
         <v>17</v>
       </c>
       <c r="C11" s="6">
-        <v>4614.0</v>
+        <v>11454.0</v>
       </c>
       <c r="D11" s="6">
-        <v>0</v>
+        <v>6710.0</v>
       </c>
       <c r="E11" s="6">
-        <v>4614.0</v>
+        <v>4744.0</v>
       </c>
       <c r="F11" s="7">
-        <v>1.0</v>
+        <v>0.4141784529422</v>
       </c>
       <c r="G11" s="6">
-        <v>46.14</v>
+        <v>47.44</v>
       </c>
       <c r="H11" s="8">
         <v>0</v>
@@ -729,19 +735,19 @@
         <v>18</v>
       </c>
       <c r="C12" s="6">
-        <v>1500.0</v>
+        <v>3500.0</v>
       </c>
       <c r="D12" s="6">
         <v>0</v>
       </c>
       <c r="E12" s="6">
-        <v>1500.0</v>
+        <v>3500.0</v>
       </c>
       <c r="F12" s="7">
         <v>1.0</v>
       </c>
       <c r="G12" s="6">
-        <v>15.0</v>
+        <v>35.0</v>
       </c>
       <c r="H12" s="8">
         <v>0</v>
@@ -755,19 +761,19 @@
         <v>19</v>
       </c>
       <c r="C13" s="9">
-        <v>13644.0</v>
+        <v>27913.0</v>
       </c>
       <c r="D13" s="9">
-        <v>1400.0</v>
+        <v>17040.0</v>
       </c>
       <c r="E13" s="9">
-        <v>12244.0</v>
+        <v>10873.0</v>
       </c>
       <c r="F13" s="10">
-        <v>0.89739079448842</v>
+        <v>0.38953175939526</v>
       </c>
       <c r="G13" s="9">
-        <v>122.44</v>
+        <v>108.73</v>
       </c>
       <c r="H13" s="9">
         <v>0</v>
@@ -808,169 +814,169 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="6">
+        <v>320.0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>320.0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="B18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="9">
-        <v>0</v>
-      </c>
-      <c r="D17" s="9">
-        <v>0</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0</v>
-      </c>
-      <c r="F17" s="10">
-        <v>0</v>
-      </c>
-      <c r="G17" s="9">
-        <v>0</v>
-      </c>
-      <c r="H17" s="9">
-        <v>0</v>
-      </c>
-      <c r="I17" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="F18" s="1" t="s">
-        <v>21</v>
+      <c r="C18" s="9">
+        <v>320.0</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9">
+        <v>320.0</v>
+      </c>
+      <c r="F18" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="G18" s="9">
+        <v>3.2</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0.0</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="B19" s="3" t="s">
+      <c r="F19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="B20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="B20" s="5" t="s">
+    <row r="21" spans="1:9">
+      <c r="B21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="6">
+        <v>4915.0</v>
+      </c>
+      <c r="D21" s="6">
+        <v>2100.0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>2815.0</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.57273652085453</v>
+      </c>
+      <c r="G21" s="6">
+        <v>28.15</v>
+      </c>
+      <c r="H21" s="8">
+        <v>0</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="9">
-        <v>0</v>
-      </c>
-      <c r="D20" s="9">
-        <v>0</v>
-      </c>
-      <c r="E20" s="9">
-        <v>0</v>
-      </c>
-      <c r="F20" s="10">
-        <v>0</v>
-      </c>
-      <c r="G20" s="9">
-        <v>0</v>
-      </c>
-      <c r="H20" s="9">
-        <v>0</v>
-      </c>
-      <c r="I20" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="F21" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="B22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="9">
+        <v>4915.0</v>
+      </c>
+      <c r="D22" s="9">
+        <v>2100.0</v>
+      </c>
+      <c r="E22" s="9">
+        <v>2815.0</v>
+      </c>
+      <c r="F22" s="10">
+        <v>0.57273652085453</v>
+      </c>
+      <c r="G22" s="9">
+        <v>28.15</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="F23" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="B24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="B23" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="6">
-        <v>13644.0</v>
-      </c>
-      <c r="D23" s="6">
-        <v>1400.0</v>
-      </c>
-      <c r="E23" s="6">
-        <v>12244.0</v>
-      </c>
-      <c r="F23" s="7">
-        <v>0.89739079448842</v>
-      </c>
-      <c r="G23" s="6">
-        <v>122.44</v>
-      </c>
-      <c r="H23" s="8">
-        <v>0</v>
-      </c>
-      <c r="I23" s="8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="B24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="6">
-        <v>0</v>
-      </c>
-      <c r="D24" s="6">
-        <v>0</v>
-      </c>
-      <c r="E24" s="6">
-        <v>0</v>
-      </c>
-      <c r="F24" s="7">
-        <v>0</v>
-      </c>
-      <c r="G24" s="6">
-        <v>0</v>
-      </c>
-      <c r="H24" s="8">
-        <v>0</v>
-      </c>
-      <c r="I24" s="8">
-        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -978,208 +984,294 @@
         <v>26</v>
       </c>
       <c r="C25" s="6">
-        <v>0</v>
+        <v>27913.0</v>
       </c>
       <c r="D25" s="6">
-        <v>0</v>
+        <v>17040.0</v>
       </c>
       <c r="E25" s="6">
-        <v>0</v>
+        <v>10873.0</v>
       </c>
       <c r="F25" s="7">
-        <v>0</v>
+        <v>0.38953175939526</v>
       </c>
       <c r="G25" s="6">
-        <v>0</v>
+        <v>108.73</v>
       </c>
       <c r="H25" s="8">
         <v>0</v>
       </c>
       <c r="I25" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="6">
+        <v>320.0</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>320.0</v>
+      </c>
+      <c r="F26" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G26" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="H26" s="8">
+        <v>0</v>
+      </c>
+      <c r="I26" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="B27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="6">
+        <v>4915.0</v>
+      </c>
+      <c r="D27" s="6">
+        <v>2100.0</v>
+      </c>
+      <c r="E27" s="6">
+        <v>2815.0</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0.57273652085453</v>
+      </c>
+      <c r="G27" s="6">
+        <v>28.15</v>
+      </c>
+      <c r="H27" s="8">
+        <v>0</v>
+      </c>
+      <c r="I27" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="B28" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="9">
-        <v>13644.0</v>
-      </c>
-      <c r="D26" s="9">
-        <v>1400.0</v>
-      </c>
-      <c r="E26" s="9">
-        <v>12244.0</v>
-      </c>
-      <c r="F26" s="10">
-        <v>0.89739079448842</v>
-      </c>
-      <c r="G26" s="9">
-        <v>122.44</v>
-      </c>
-      <c r="H26" s="9">
-        <v>0</v>
-      </c>
-      <c r="I26" s="9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="B28" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="B29" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="11" t="s">
+      <c r="C28" s="9">
+        <v>33148.0</v>
+      </c>
+      <c r="D28" s="9">
+        <v>19140.0</v>
+      </c>
+      <c r="E28" s="9">
+        <v>14008.0</v>
+      </c>
+      <c r="F28" s="10">
+        <v>0.4225895981658</v>
+      </c>
+      <c r="G28" s="9">
+        <v>140.08</v>
+      </c>
+      <c r="H28" s="9">
+        <v>0</v>
+      </c>
+      <c r="I28" s="9">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="B30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="B31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D31" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="B30" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="12">
-        <v>3100.0</v>
-      </c>
-      <c r="E30" s="13">
-        <v>0</v>
-      </c>
-      <c r="F30" s="12">
-        <v>3100.0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="B31" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="12">
-        <v>280.0</v>
-      </c>
-      <c r="E31" s="13">
-        <v>0</v>
-      </c>
-      <c r="F31" s="12">
-        <v>280.0</v>
+      <c r="E31" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D32" s="12">
-        <v>4150.0</v>
+        <v>4979.0</v>
       </c>
       <c r="E32" s="13">
-        <v>1400.0</v>
+        <v>3100.0</v>
       </c>
       <c r="F32" s="12">
-        <v>2750.0</v>
+        <v>1879.0</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="B33" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D33" s="12">
-        <v>4614.0</v>
+        <v>280.0</v>
       </c>
       <c r="E33" s="13">
-        <v>0</v>
+        <v>280.0</v>
       </c>
       <c r="F33" s="12">
-        <v>4614.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="B34" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C34" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="12">
+        <v>7700.0</v>
+      </c>
+      <c r="E34" s="13">
+        <v>6950.0</v>
+      </c>
+      <c r="F34" s="12">
+        <v>750.0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="B35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="12">
+        <v>11454.0</v>
+      </c>
+      <c r="E35" s="13">
+        <v>6710.0</v>
+      </c>
+      <c r="F35" s="12">
+        <v>4744.0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="B36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="12">
-        <v>1500.0</v>
-      </c>
-      <c r="E34" s="13">
-        <v>0</v>
-      </c>
-      <c r="F34" s="12">
-        <v>1500.0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="B35" s="4"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="12"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="B36" s="4"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="12"/>
+      <c r="D36" s="12">
+        <v>3500.0</v>
+      </c>
+      <c r="E36" s="13">
+        <v>0</v>
+      </c>
+      <c r="F36" s="12">
+        <v>3500.0</v>
+      </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="B37" s="5"/>
-      <c r="C37" s="9" t="s">
+      <c r="B37" s="4"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="12"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="B38" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="12">
+        <v>320.0</v>
+      </c>
+      <c r="E38" s="13">
+        <v>0</v>
+      </c>
+      <c r="F38" s="12">
+        <v>320.0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="B39" s="4"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="12"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="B40" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="12">
+        <v>4915.0</v>
+      </c>
+      <c r="E40" s="13">
+        <v>2100.0</v>
+      </c>
+      <c r="F40" s="12">
+        <v>2815.0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="B41" s="5"/>
+      <c r="C41" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="9">
-        <v>13644.0</v>
-      </c>
-      <c r="E37" s="9">
-        <v>1400.0</v>
-      </c>
-      <c r="F37" s="9">
-        <v>12244.0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="D38" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" s="15">
-        <v>0.10260920551158</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="D39" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39" s="15">
-        <v>0.89739079448842</v>
+      <c r="D41" s="9">
+        <v>33148.0</v>
+      </c>
+      <c r="E41" s="9">
+        <v>19140.0</v>
+      </c>
+      <c r="F41" s="9">
+        <v>14008.0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="D42" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="15">
+        <v>0.5774104018342</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="D43" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="15">
+        <v>0.4225895981658</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B30:F30"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>

--- a/financeiro/resumo_campanha_63.xlsx
+++ b/financeiro/resumo_campanha_63.xlsx
@@ -59,19 +59,19 @@
     <t>COMISSÃO (2%)-PÓS-FECH</t>
   </si>
   <si>
+    <t>Alan</t>
+  </si>
+  <si>
     <t>Ana</t>
   </si>
   <si>
-    <t>Alan</t>
+    <t>Sibely</t>
+  </si>
+  <si>
+    <t>Sttefani</t>
   </si>
   <si>
     <t>Suzana</t>
-  </si>
-  <si>
-    <t>Sttefani</t>
-  </si>
-  <si>
-    <t>Sibely</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -631,19 +631,19 @@
         <v>14</v>
       </c>
       <c r="C8" s="6">
-        <v>4979.0</v>
+        <v>280.0</v>
       </c>
       <c r="D8" s="6">
-        <v>3100.0</v>
+        <v>280.0</v>
       </c>
       <c r="E8" s="6">
-        <v>1879.0</v>
+        <v>0.0</v>
       </c>
       <c r="F8" s="7">
-        <v>0.3773850170717</v>
+        <v>0.0</v>
       </c>
       <c r="G8" s="6">
-        <v>18.79</v>
+        <v>0</v>
       </c>
       <c r="H8" s="8">
         <v>0</v>
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="C9" s="6">
-        <v>280.0</v>
+        <v>6879.0</v>
       </c>
       <c r="D9" s="6">
-        <v>280.0</v>
+        <v>4979.0</v>
       </c>
       <c r="E9" s="6">
-        <v>0.0</v>
+        <v>1900.0</v>
       </c>
       <c r="F9" s="7">
-        <v>0.0</v>
+        <v>0.27620293647332</v>
       </c>
       <c r="G9" s="6">
-        <v>0</v>
+        <v>19.0</v>
       </c>
       <c r="H9" s="8">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>16</v>
       </c>
       <c r="C10" s="6">
-        <v>7700.0</v>
+        <v>4080.0</v>
       </c>
       <c r="D10" s="6">
-        <v>6950.0</v>
+        <v>0</v>
       </c>
       <c r="E10" s="6">
-        <v>750.0</v>
+        <v>4080.0</v>
       </c>
       <c r="F10" s="7">
-        <v>0.097402597402597</v>
+        <v>1.0</v>
       </c>
       <c r="G10" s="6">
-        <v>7.5</v>
+        <v>40.8</v>
       </c>
       <c r="H10" s="8">
         <v>0</v>
@@ -735,19 +735,19 @@
         <v>18</v>
       </c>
       <c r="C12" s="6">
-        <v>3500.0</v>
+        <v>8750.0</v>
       </c>
       <c r="D12" s="6">
-        <v>0</v>
+        <v>7700.0</v>
       </c>
       <c r="E12" s="6">
-        <v>3500.0</v>
+        <v>1050.0</v>
       </c>
       <c r="F12" s="7">
-        <v>1.0</v>
+        <v>0.12</v>
       </c>
       <c r="G12" s="6">
-        <v>35.0</v>
+        <v>10.5</v>
       </c>
       <c r="H12" s="8">
         <v>0</v>
@@ -761,19 +761,19 @@
         <v>19</v>
       </c>
       <c r="C13" s="9">
-        <v>27913.0</v>
+        <v>31443.0</v>
       </c>
       <c r="D13" s="9">
-        <v>17040.0</v>
+        <v>19669.0</v>
       </c>
       <c r="E13" s="9">
-        <v>10873.0</v>
+        <v>11774.0</v>
       </c>
       <c r="F13" s="10">
-        <v>0.38953175939526</v>
+        <v>0.37445536367395</v>
       </c>
       <c r="G13" s="9">
-        <v>108.73</v>
+        <v>117.74</v>
       </c>
       <c r="H13" s="9">
         <v>0</v>
@@ -904,16 +904,16 @@
         <v>4915.0</v>
       </c>
       <c r="D21" s="6">
-        <v>2100.0</v>
+        <v>2600.0</v>
       </c>
       <c r="E21" s="6">
-        <v>2815.0</v>
+        <v>2315.0</v>
       </c>
       <c r="F21" s="7">
-        <v>0.57273652085453</v>
+        <v>0.47100712105799</v>
       </c>
       <c r="G21" s="6">
-        <v>28.15</v>
+        <v>23.15</v>
       </c>
       <c r="H21" s="8">
         <v>0</v>
@@ -930,16 +930,16 @@
         <v>4915.0</v>
       </c>
       <c r="D22" s="9">
-        <v>2100.0</v>
+        <v>2600.0</v>
       </c>
       <c r="E22" s="9">
-        <v>2815.0</v>
+        <v>2315.0</v>
       </c>
       <c r="F22" s="10">
-        <v>0.57273652085453</v>
+        <v>0.47100712105799</v>
       </c>
       <c r="G22" s="9">
-        <v>28.15</v>
+        <v>23.15</v>
       </c>
       <c r="H22" s="9">
         <v>0</v>
@@ -984,19 +984,19 @@
         <v>26</v>
       </c>
       <c r="C25" s="6">
-        <v>27913.0</v>
+        <v>31443.0</v>
       </c>
       <c r="D25" s="6">
-        <v>17040.0</v>
+        <v>19669.0</v>
       </c>
       <c r="E25" s="6">
-        <v>10873.0</v>
+        <v>11774.0</v>
       </c>
       <c r="F25" s="7">
-        <v>0.38953175939526</v>
+        <v>0.37445536367395</v>
       </c>
       <c r="G25" s="6">
-        <v>108.73</v>
+        <v>117.74</v>
       </c>
       <c r="H25" s="8">
         <v>0</v>
@@ -1039,16 +1039,16 @@
         <v>4915.0</v>
       </c>
       <c r="D27" s="6">
-        <v>2100.0</v>
+        <v>2600.0</v>
       </c>
       <c r="E27" s="6">
-        <v>2815.0</v>
+        <v>2315.0</v>
       </c>
       <c r="F27" s="7">
-        <v>0.57273652085453</v>
+        <v>0.47100712105799</v>
       </c>
       <c r="G27" s="6">
-        <v>28.15</v>
+        <v>23.15</v>
       </c>
       <c r="H27" s="8">
         <v>0</v>
@@ -1062,19 +1062,19 @@
         <v>19</v>
       </c>
       <c r="C28" s="9">
-        <v>33148.0</v>
+        <v>36678.0</v>
       </c>
       <c r="D28" s="9">
-        <v>19140.0</v>
+        <v>22269.0</v>
       </c>
       <c r="E28" s="9">
-        <v>14008.0</v>
+        <v>14409.0</v>
       </c>
       <c r="F28" s="10">
-        <v>0.4225895981658</v>
+        <v>0.39285130050712</v>
       </c>
       <c r="G28" s="9">
-        <v>140.08</v>
+        <v>144.09</v>
       </c>
       <c r="H28" s="9">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>14</v>
       </c>
       <c r="D32" s="12">
-        <v>4979.0</v>
+        <v>280.0</v>
       </c>
       <c r="E32" s="13">
-        <v>3100.0</v>
+        <v>280.0</v>
       </c>
       <c r="F32" s="12">
-        <v>1879.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1130,13 +1130,13 @@
         <v>15</v>
       </c>
       <c r="D33" s="12">
-        <v>280.0</v>
+        <v>6879.0</v>
       </c>
       <c r="E33" s="13">
-        <v>280.0</v>
+        <v>4979.0</v>
       </c>
       <c r="F33" s="12">
-        <v>0.0</v>
+        <v>1900.0</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1147,13 +1147,13 @@
         <v>16</v>
       </c>
       <c r="D34" s="12">
-        <v>7700.0</v>
+        <v>4080.0</v>
       </c>
       <c r="E34" s="13">
-        <v>6950.0</v>
+        <v>0</v>
       </c>
       <c r="F34" s="12">
-        <v>750.0</v>
+        <v>4080.0</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1181,13 +1181,13 @@
         <v>18</v>
       </c>
       <c r="D36" s="12">
-        <v>3500.0</v>
+        <v>8750.0</v>
       </c>
       <c r="E36" s="13">
-        <v>0</v>
+        <v>7700.0</v>
       </c>
       <c r="F36" s="12">
-        <v>3500.0</v>
+        <v>1050.0</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1232,10 +1232,10 @@
         <v>4915.0</v>
       </c>
       <c r="E40" s="13">
-        <v>2100.0</v>
+        <v>2600.0</v>
       </c>
       <c r="F40" s="12">
-        <v>2815.0</v>
+        <v>2315.0</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1244,13 +1244,13 @@
         <v>19</v>
       </c>
       <c r="D41" s="9">
-        <v>33148.0</v>
+        <v>36678.0</v>
       </c>
       <c r="E41" s="9">
-        <v>19140.0</v>
+        <v>22269.0</v>
       </c>
       <c r="F41" s="9">
-        <v>14008.0</v>
+        <v>14409.0</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1258,7 +1258,7 @@
         <v>33</v>
       </c>
       <c r="E42" s="15">
-        <v>0.5774104018342</v>
+        <v>0.60714869949288</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1266,7 +1266,7 @@
         <v>34</v>
       </c>
       <c r="E43" s="15">
-        <v>0.4225895981658</v>
+        <v>0.39285130050712</v>
       </c>
     </row>
   </sheetData>

--- a/financeiro/resumo_campanha_63.xlsx
+++ b/financeiro/resumo_campanha_63.xlsx
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="C9" s="6">
-        <v>6879.0</v>
+        <v>7709.0</v>
       </c>
       <c r="D9" s="6">
-        <v>4979.0</v>
+        <v>7709.0</v>
       </c>
       <c r="E9" s="6">
-        <v>1900.0</v>
+        <v>0.0</v>
       </c>
       <c r="F9" s="7">
-        <v>0.27620293647332</v>
+        <v>0.0</v>
       </c>
       <c r="G9" s="6">
-        <v>19.0</v>
+        <v>0</v>
       </c>
       <c r="H9" s="8">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>4080.0</v>
       </c>
       <c r="D10" s="6">
-        <v>0</v>
+        <v>2000.0</v>
       </c>
       <c r="E10" s="6">
-        <v>4080.0</v>
+        <v>2080.0</v>
       </c>
       <c r="F10" s="7">
-        <v>1.0</v>
+        <v>0.50980392156863</v>
       </c>
       <c r="G10" s="6">
-        <v>40.8</v>
+        <v>20.8</v>
       </c>
       <c r="H10" s="8">
         <v>0</v>
@@ -712,16 +712,16 @@
         <v>11454.0</v>
       </c>
       <c r="D11" s="6">
-        <v>6710.0</v>
+        <v>11454.0</v>
       </c>
       <c r="E11" s="6">
-        <v>4744.0</v>
+        <v>0.0</v>
       </c>
       <c r="F11" s="7">
-        <v>0.4141784529422</v>
+        <v>0.0</v>
       </c>
       <c r="G11" s="6">
-        <v>47.44</v>
+        <v>0</v>
       </c>
       <c r="H11" s="8">
         <v>0</v>
@@ -738,16 +738,16 @@
         <v>8750.0</v>
       </c>
       <c r="D12" s="6">
-        <v>7700.0</v>
+        <v>8750.0</v>
       </c>
       <c r="E12" s="6">
-        <v>1050.0</v>
+        <v>0.0</v>
       </c>
       <c r="F12" s="7">
-        <v>0.12</v>
+        <v>0.0</v>
       </c>
       <c r="G12" s="6">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="H12" s="8">
         <v>0</v>
@@ -761,19 +761,19 @@
         <v>19</v>
       </c>
       <c r="C13" s="9">
-        <v>31443.0</v>
+        <v>32273.0</v>
       </c>
       <c r="D13" s="9">
-        <v>19669.0</v>
+        <v>30193.0</v>
       </c>
       <c r="E13" s="9">
-        <v>11774.0</v>
+        <v>2080.0</v>
       </c>
       <c r="F13" s="10">
-        <v>0.37445536367395</v>
+        <v>0.064450159576116</v>
       </c>
       <c r="G13" s="9">
-        <v>117.74</v>
+        <v>20.8</v>
       </c>
       <c r="H13" s="9">
         <v>0</v>
@@ -901,19 +901,19 @@
         <v>23</v>
       </c>
       <c r="C21" s="6">
-        <v>4915.0</v>
+        <v>6625.0</v>
       </c>
       <c r="D21" s="6">
         <v>2600.0</v>
       </c>
       <c r="E21" s="6">
-        <v>2315.0</v>
+        <v>4025.0</v>
       </c>
       <c r="F21" s="7">
-        <v>0.47100712105799</v>
+        <v>0.60754716981132</v>
       </c>
       <c r="G21" s="6">
-        <v>23.15</v>
+        <v>40.25</v>
       </c>
       <c r="H21" s="8">
         <v>0</v>
@@ -927,19 +927,19 @@
         <v>19</v>
       </c>
       <c r="C22" s="9">
-        <v>4915.0</v>
+        <v>6625.0</v>
       </c>
       <c r="D22" s="9">
         <v>2600.0</v>
       </c>
       <c r="E22" s="9">
-        <v>2315.0</v>
+        <v>4025.0</v>
       </c>
       <c r="F22" s="10">
-        <v>0.47100712105799</v>
+        <v>0.60754716981132</v>
       </c>
       <c r="G22" s="9">
-        <v>23.15</v>
+        <v>40.25</v>
       </c>
       <c r="H22" s="9">
         <v>0</v>
@@ -984,19 +984,19 @@
         <v>26</v>
       </c>
       <c r="C25" s="6">
-        <v>31443.0</v>
+        <v>32273.0</v>
       </c>
       <c r="D25" s="6">
-        <v>19669.0</v>
+        <v>30193.0</v>
       </c>
       <c r="E25" s="6">
-        <v>11774.0</v>
+        <v>2080.0</v>
       </c>
       <c r="F25" s="7">
-        <v>0.37445536367395</v>
+        <v>0.064450159576116</v>
       </c>
       <c r="G25" s="6">
-        <v>117.74</v>
+        <v>20.8</v>
       </c>
       <c r="H25" s="8">
         <v>0</v>
@@ -1036,19 +1036,19 @@
         <v>28</v>
       </c>
       <c r="C27" s="6">
-        <v>4915.0</v>
+        <v>6625.0</v>
       </c>
       <c r="D27" s="6">
         <v>2600.0</v>
       </c>
       <c r="E27" s="6">
-        <v>2315.0</v>
+        <v>4025.0</v>
       </c>
       <c r="F27" s="7">
-        <v>0.47100712105799</v>
+        <v>0.60754716981132</v>
       </c>
       <c r="G27" s="6">
-        <v>23.15</v>
+        <v>40.25</v>
       </c>
       <c r="H27" s="8">
         <v>0</v>
@@ -1062,19 +1062,19 @@
         <v>19</v>
       </c>
       <c r="C28" s="9">
-        <v>36678.0</v>
+        <v>39218.0</v>
       </c>
       <c r="D28" s="9">
-        <v>22269.0</v>
+        <v>32793.0</v>
       </c>
       <c r="E28" s="9">
-        <v>14409.0</v>
+        <v>6425.0</v>
       </c>
       <c r="F28" s="10">
-        <v>0.39285130050712</v>
+        <v>0.16382783415778</v>
       </c>
       <c r="G28" s="9">
-        <v>144.09</v>
+        <v>64.25</v>
       </c>
       <c r="H28" s="9">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         <v>15</v>
       </c>
       <c r="D33" s="12">
-        <v>6879.0</v>
+        <v>7709.0</v>
       </c>
       <c r="E33" s="13">
-        <v>4979.0</v>
+        <v>7709.0</v>
       </c>
       <c r="F33" s="12">
-        <v>1900.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1150,10 +1150,10 @@
         <v>4080.0</v>
       </c>
       <c r="E34" s="13">
-        <v>0</v>
+        <v>2000.0</v>
       </c>
       <c r="F34" s="12">
-        <v>4080.0</v>
+        <v>2080.0</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1167,10 +1167,10 @@
         <v>11454.0</v>
       </c>
       <c r="E35" s="13">
-        <v>6710.0</v>
+        <v>11454.0</v>
       </c>
       <c r="F35" s="12">
-        <v>4744.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1184,10 +1184,10 @@
         <v>8750.0</v>
       </c>
       <c r="E36" s="13">
-        <v>7700.0</v>
+        <v>8750.0</v>
       </c>
       <c r="F36" s="12">
-        <v>1050.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1229,13 +1229,13 @@
         <v>23</v>
       </c>
       <c r="D40" s="12">
-        <v>4915.0</v>
+        <v>6625.0</v>
       </c>
       <c r="E40" s="13">
         <v>2600.0</v>
       </c>
       <c r="F40" s="12">
-        <v>2315.0</v>
+        <v>4025.0</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1244,13 +1244,13 @@
         <v>19</v>
       </c>
       <c r="D41" s="9">
-        <v>36678.0</v>
+        <v>39218.0</v>
       </c>
       <c r="E41" s="9">
-        <v>22269.0</v>
+        <v>32793.0</v>
       </c>
       <c r="F41" s="9">
-        <v>14409.0</v>
+        <v>6425.0</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1258,7 +1258,7 @@
         <v>33</v>
       </c>
       <c r="E42" s="15">
-        <v>0.60714869949288</v>
+        <v>0.83617216584222</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1266,7 +1266,7 @@
         <v>34</v>
       </c>
       <c r="E43" s="15">
-        <v>0.39285130050712</v>
+        <v>0.16382783415778</v>
       </c>
     </row>
   </sheetData>

--- a/financeiro/resumo_campanha_63.xlsx
+++ b/financeiro/resumo_campanha_63.xlsx
@@ -916,10 +916,10 @@
         <v>40.25</v>
       </c>
       <c r="H21" s="8">
-        <v>0</v>
+        <v>1440.0</v>
       </c>
       <c r="I21" s="8">
-        <v>0.0</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -942,10 +942,10 @@
         <v>40.25</v>
       </c>
       <c r="H22" s="9">
-        <v>0</v>
+        <v>1440.0</v>
       </c>
       <c r="I22" s="9">
-        <v>0.0</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1051,10 +1051,10 @@
         <v>40.25</v>
       </c>
       <c r="H27" s="8">
-        <v>0</v>
+        <v>1440.0</v>
       </c>
       <c r="I27" s="8">
-        <v>0.0</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1077,10 +1077,10 @@
         <v>64.25</v>
       </c>
       <c r="H28" s="9">
-        <v>0</v>
+        <v>1440.0</v>
       </c>
       <c r="I28" s="9">
-        <v>0.0</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="30" spans="1:9">

--- a/financeiro/resumo_campanha_63.xlsx
+++ b/financeiro/resumo_campanha_63.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>CAMPANHA 63</t>
   </si>
@@ -29,10 +29,16 @@
     <t>PAGAMENTO:</t>
   </si>
   <si>
-    <t>06/10/2024</t>
+    <t>05/10/2024</t>
   </si>
   <si>
     <t>VENDA EM BOLETOS - MATRIZ</t>
+  </si>
+  <si>
+    <t>PAGAMENTO PÓS:</t>
+  </si>
+  <si>
+    <t>06/11/2024</t>
   </si>
   <si>
     <t>VENDEDOR</t>
@@ -599,36 +605,42 @@
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="B7" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="B8" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8" s="6">
         <v>280.0</v>
@@ -654,7 +666,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="B9" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C9" s="6">
         <v>7709.0</v>
@@ -680,7 +692,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" s="6">
         <v>4080.0</v>
@@ -698,15 +710,15 @@
         <v>20.8</v>
       </c>
       <c r="H10" s="8">
-        <v>0</v>
+        <v>580.0</v>
       </c>
       <c r="I10" s="8">
-        <v>0.0</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="B11" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" s="6">
         <v>11454.0</v>
@@ -732,7 +744,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="B12" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" s="6">
         <v>8750.0</v>
@@ -758,7 +770,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="B13" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C13" s="9">
         <v>32273.0</v>
@@ -776,46 +788,46 @@
         <v>20.8</v>
       </c>
       <c r="H13" s="9">
-        <v>0</v>
+        <v>580.0</v>
       </c>
       <c r="I13" s="9">
-        <v>0.0</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="F15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="B16" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="B17" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C17" s="6">
         <v>320.0</v>
@@ -841,7 +853,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C18" s="9">
         <v>320.0</v>
@@ -867,38 +879,38 @@
     </row>
     <row r="19" spans="1:9">
       <c r="F19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="B20" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C21" s="6">
         <v>6625.0</v>
@@ -916,15 +928,15 @@
         <v>40.25</v>
       </c>
       <c r="H21" s="8">
-        <v>1440.0</v>
+        <v>4025.0</v>
       </c>
       <c r="I21" s="8">
-        <v>28.8</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="B22" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C22" s="9">
         <v>6625.0</v>
@@ -942,46 +954,46 @@
         <v>40.25</v>
       </c>
       <c r="H22" s="9">
-        <v>1440.0</v>
+        <v>4025.0</v>
       </c>
       <c r="I22" s="9">
-        <v>28.8</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="F23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="B24" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C25" s="6">
         <v>32273.0</v>
@@ -999,15 +1011,15 @@
         <v>20.8</v>
       </c>
       <c r="H25" s="8">
-        <v>0</v>
+        <v>580.0</v>
       </c>
       <c r="I25" s="8">
-        <v>0.0</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C26" s="6">
         <v>320.0</v>
@@ -1033,7 +1045,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C27" s="6">
         <v>6625.0</v>
@@ -1051,15 +1063,15 @@
         <v>40.25</v>
       </c>
       <c r="H27" s="8">
-        <v>1440.0</v>
+        <v>4025.0</v>
       </c>
       <c r="I27" s="8">
-        <v>28.8</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C28" s="9">
         <v>39218.0</v>
@@ -1077,40 +1089,40 @@
         <v>64.25</v>
       </c>
       <c r="H28" s="9">
-        <v>1440.0</v>
+        <v>4605.0</v>
       </c>
       <c r="I28" s="9">
-        <v>28.8</v>
+        <v>92.1</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D32" s="12">
         <v>280.0</v>
@@ -1124,10 +1136,10 @@
     </row>
     <row r="33" spans="1:9">
       <c r="B33" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D33" s="12">
         <v>7709.0</v>
@@ -1141,10 +1153,10 @@
     </row>
     <row r="34" spans="1:9">
       <c r="B34" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D34" s="12">
         <v>4080.0</v>
@@ -1158,10 +1170,10 @@
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D35" s="12">
         <v>11454.0</v>
@@ -1175,10 +1187,10 @@
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D36" s="12">
         <v>8750.0</v>
@@ -1199,10 +1211,10 @@
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D38" s="12">
         <v>320.0</v>
@@ -1223,10 +1235,10 @@
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D40" s="12">
         <v>6625.0</v>
@@ -1241,7 +1253,7 @@
     <row r="41" spans="1:9">
       <c r="B41" s="5"/>
       <c r="C41" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D41" s="9">
         <v>39218.0</v>
@@ -1255,7 +1267,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="D42" s="14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E42" s="15">
         <v>0.83617216584222</v>
@@ -1263,7 +1275,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="D43" s="14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E43" s="15">
         <v>0.16382783415778</v>

--- a/financeiro/resumo_campanha_63.xlsx
+++ b/financeiro/resumo_campanha_63.xlsx
@@ -710,10 +710,10 @@
         <v>20.8</v>
       </c>
       <c r="H10" s="8">
-        <v>580.0</v>
+        <v>2080.0</v>
       </c>
       <c r="I10" s="8">
-        <v>11.6</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -788,10 +788,10 @@
         <v>20.8</v>
       </c>
       <c r="H13" s="9">
-        <v>580.0</v>
+        <v>2080.0</v>
       </c>
       <c r="I13" s="9">
-        <v>11.6</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1011,10 +1011,10 @@
         <v>20.8</v>
       </c>
       <c r="H25" s="8">
-        <v>580.0</v>
+        <v>2080.0</v>
       </c>
       <c r="I25" s="8">
-        <v>11.6</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1089,10 +1089,10 @@
         <v>64.25</v>
       </c>
       <c r="H28" s="9">
-        <v>4605.0</v>
+        <v>6105.0</v>
       </c>
       <c r="I28" s="9">
-        <v>92.1</v>
+        <v>122.1</v>
       </c>
     </row>
     <row r="30" spans="1:9">

--- a/financeiro/resumo_campanha_63.xlsx
+++ b/financeiro/resumo_campanha_63.xlsx
@@ -672,22 +672,22 @@
         <v>7709.0</v>
       </c>
       <c r="D9" s="6">
-        <v>7709.0</v>
+        <v>6879.0</v>
       </c>
       <c r="E9" s="6">
-        <v>0.0</v>
+        <v>830.0</v>
       </c>
       <c r="F9" s="7">
-        <v>0.0</v>
+        <v>0.10766636399014</v>
       </c>
       <c r="G9" s="6">
-        <v>0</v>
+        <v>8.3</v>
       </c>
       <c r="H9" s="8">
-        <v>0</v>
+        <v>830.0</v>
       </c>
       <c r="I9" s="8">
-        <v>0.0</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -776,22 +776,22 @@
         <v>32273.0</v>
       </c>
       <c r="D13" s="9">
-        <v>30193.0</v>
+        <v>29363.0</v>
       </c>
       <c r="E13" s="9">
-        <v>2080.0</v>
+        <v>2910.0</v>
       </c>
       <c r="F13" s="10">
-        <v>0.064450159576116</v>
+        <v>0.090168252099278</v>
       </c>
       <c r="G13" s="9">
-        <v>20.8</v>
+        <v>29.1</v>
       </c>
       <c r="H13" s="9">
-        <v>2080.0</v>
+        <v>2910.0</v>
       </c>
       <c r="I13" s="9">
-        <v>41.6</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -999,22 +999,22 @@
         <v>32273.0</v>
       </c>
       <c r="D25" s="6">
-        <v>30193.0</v>
+        <v>29363.0</v>
       </c>
       <c r="E25" s="6">
-        <v>2080.0</v>
+        <v>2910.0</v>
       </c>
       <c r="F25" s="7">
-        <v>0.064450159576116</v>
+        <v>0.090168252099278</v>
       </c>
       <c r="G25" s="6">
-        <v>20.8</v>
+        <v>29.1</v>
       </c>
       <c r="H25" s="8">
-        <v>2080.0</v>
+        <v>2910.0</v>
       </c>
       <c r="I25" s="8">
-        <v>41.6</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1077,22 +1077,22 @@
         <v>39218.0</v>
       </c>
       <c r="D28" s="9">
-        <v>32793.0</v>
+        <v>31963.0</v>
       </c>
       <c r="E28" s="9">
-        <v>6425.0</v>
+        <v>7255.0</v>
       </c>
       <c r="F28" s="10">
-        <v>0.16382783415778</v>
+        <v>0.18499158549646</v>
       </c>
       <c r="G28" s="9">
-        <v>64.25</v>
+        <v>72.55</v>
       </c>
       <c r="H28" s="9">
-        <v>6105.0</v>
+        <v>6935.0</v>
       </c>
       <c r="I28" s="9">
-        <v>122.1</v>
+        <v>138.7</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1145,10 +1145,10 @@
         <v>7709.0</v>
       </c>
       <c r="E33" s="13">
-        <v>7709.0</v>
+        <v>6879.0</v>
       </c>
       <c r="F33" s="12">
-        <v>0.0</v>
+        <v>830.0</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1259,10 +1259,10 @@
         <v>39218.0</v>
       </c>
       <c r="E41" s="9">
-        <v>32793.0</v>
+        <v>31963.0</v>
       </c>
       <c r="F41" s="9">
-        <v>6425.0</v>
+        <v>7255.0</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1270,7 +1270,7 @@
         <v>35</v>
       </c>
       <c r="E42" s="15">
-        <v>0.83617216584222</v>
+        <v>0.81500841450354</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1278,7 +1278,7 @@
         <v>36</v>
       </c>
       <c r="E43" s="15">
-        <v>0.16382783415778</v>
+        <v>0.18499158549646</v>
       </c>
     </row>
   </sheetData>
